--- a/artfynd/A 28448-2023.xlsx
+++ b/artfynd/A 28448-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111962461</v>
+        <v>111962533</v>
       </c>
       <c r="B2" t="n">
         <v>90300</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>799375.9726420566</v>
+        <v>799378.6783105285</v>
       </c>
       <c r="R2" t="n">
-        <v>7230154.838872902</v>
+        <v>7230182.724521286</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111962533</v>
+        <v>111962461</v>
       </c>
       <c r="B3" t="n">
         <v>90300</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>799378.6783105285</v>
+        <v>799375.9726420566</v>
       </c>
       <c r="R3" t="n">
-        <v>7230182.724521286</v>
+        <v>7230154.838872902</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 28448-2023.xlsx
+++ b/artfynd/A 28448-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111962533</v>
+        <v>111962461</v>
       </c>
       <c r="B2" t="n">
         <v>90300</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>799378.6783105285</v>
+        <v>799376</v>
       </c>
       <c r="R2" t="n">
-        <v>7230182.724521286</v>
+        <v>7230155</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111962461</v>
+        <v>111962533</v>
       </c>
       <c r="B3" t="n">
         <v>90300</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>799375.9726420566</v>
+        <v>799379</v>
       </c>
       <c r="R3" t="n">
-        <v>7230154.838872902</v>
+        <v>7230183</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 28448-2023.xlsx
+++ b/artfynd/A 28448-2023.xlsx
@@ -683,7 +683,7 @@
         <v>111962461</v>
       </c>
       <c r="B2" t="n">
-        <v>90300</v>
+        <v>90434</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>111962533</v>
       </c>
       <c r="B3" t="n">
-        <v>90300</v>
+        <v>90434</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 28448-2023.xlsx
+++ b/artfynd/A 28448-2023.xlsx
@@ -683,7 +683,7 @@
         <v>111962461</v>
       </c>
       <c r="B2" t="n">
-        <v>90434</v>
+        <v>90448</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>111962533</v>
       </c>
       <c r="B3" t="n">
-        <v>90434</v>
+        <v>90448</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 28448-2023.xlsx
+++ b/artfynd/A 28448-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111962461</v>
+        <v>111962533</v>
       </c>
       <c r="B2" t="n">
         <v>90448</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>799376</v>
+        <v>799379</v>
       </c>
       <c r="R2" t="n">
-        <v>7230155</v>
+        <v>7230183</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111962533</v>
+        <v>111962461</v>
       </c>
       <c r="B3" t="n">
         <v>90448</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>799379</v>
+        <v>799376</v>
       </c>
       <c r="R3" t="n">
-        <v>7230183</v>
+        <v>7230155</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 28448-2023.xlsx
+++ b/artfynd/A 28448-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111962533</v>
+        <v>111962461</v>
       </c>
       <c r="B2" t="n">
         <v>90448</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>799379</v>
+        <v>799376</v>
       </c>
       <c r="R2" t="n">
-        <v>7230183</v>
+        <v>7230155</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111962461</v>
+        <v>111962533</v>
       </c>
       <c r="B3" t="n">
         <v>90448</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>799376</v>
+        <v>799379</v>
       </c>
       <c r="R3" t="n">
-        <v>7230155</v>
+        <v>7230183</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AD3" t="b">
